--- a/outputs-HGR-r202-archive/p__Proteobacteria.xlsx
+++ b/outputs-HGR-r202-archive/p__Proteobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,43 +521,43 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11406.fa</t>
+          <t>even_MAG-GUT11412.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999716890374474</v>
+        <v>4.152774126464642e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>2.83109625525818e-05</v>
+        <v>0.9999958472258735</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999716890374474</v>
+        <v>0.9999958472258735</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11412.fa</t>
+          <t>even_MAG-GUT11423.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.152774126464642e-06</v>
+        <v>8.101526827619665e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999958472258735</v>
+        <v>0.9999918984731724</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999958472258735</v>
+        <v>0.9999918984731724</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,43 +573,43 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11423.fa</t>
+          <t>even_MAG-GUT11468.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.101526827619665e-06</v>
+        <v>0.999952260118913</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999918984731724</v>
+        <v>4.773988108693526e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999918984731724</v>
+        <v>0.999952260118913</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11468.fa</t>
+          <t>even_MAG-GUT11535.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999952260118913</v>
+        <v>0.999987236185495</v>
       </c>
       <c r="C7" t="n">
-        <v>4.773988108693526e-05</v>
+        <v>1.276381450501128e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999952260118913</v>
+        <v>0.999987236185495</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -625,17 +625,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11535.fa</t>
+          <t>even_MAG-GUT11596.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999987236185495</v>
+        <v>0.9924418304376018</v>
       </c>
       <c r="C8" t="n">
-        <v>1.276381450501128e-05</v>
+        <v>0.007558169562398188</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999987236185495</v>
+        <v>0.9924418304376018</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -651,17 +651,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11596.fa</t>
+          <t>even_MAG-GUT11640.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9924418304376018</v>
+        <v>0.999775508386231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007558169562398188</v>
+        <v>0.000224491613769012</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9924418304376018</v>
+        <v>0.999775508386231</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -677,17 +677,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11640.fa</t>
+          <t>even_MAG-GUT11729.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999775508386231</v>
+        <v>0.999892498956261</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000224491613769012</v>
+        <v>0.0001075010437390668</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999775508386231</v>
+        <v>0.999892498956261</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -703,43 +703,43 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11644.fa</t>
+          <t>even_MAG-GUT11760.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999269773056796</v>
+        <v>0.0003794654430021582</v>
       </c>
       <c r="C11" t="n">
-        <v>7.302269432037679e-05</v>
+        <v>0.9996205345569978</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999269773056796</v>
+        <v>0.9996205345569978</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11729.fa</t>
+          <t>even_MAG-GUT11931.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.999892498956261</v>
+        <v>0.9999974834939523</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001075010437390668</v>
+        <v>2.516506047702173e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999892498956261</v>
+        <v>0.9999974834939523</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -755,17 +755,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11760.fa</t>
+          <t>even_MAG-GUT12028.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0003794654430021582</v>
+        <v>2.118839321330057e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9996205345569978</v>
+        <v>0.9999978811606787</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9996205345569978</v>
+        <v>0.9999978811606787</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -781,17 +781,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11931.fa</t>
+          <t>even_MAG-GUT12173.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999974834939523</v>
+        <v>0.9989578177526393</v>
       </c>
       <c r="C14" t="n">
-        <v>2.516506047702173e-06</v>
+        <v>0.001042182247360736</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999974834939523</v>
+        <v>0.9989578177526393</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -807,17 +807,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12028.fa</t>
+          <t>even_MAG-GUT12217.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.118839321330057e-06</v>
+        <v>9.693410272237912e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999978811606787</v>
+        <v>0.9999903065897278</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999978811606787</v>
+        <v>0.9999903065897278</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -833,17 +833,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12173.fa</t>
+          <t>even_MAG-GUT12225.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9989578177526393</v>
+        <v>0.9960681538175273</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001042182247360736</v>
+        <v>0.003931846182472685</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9989578177526393</v>
+        <v>0.9960681538175273</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -859,17 +859,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12195.fa</t>
+          <t>even_MAG-GUT12256.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999680611608718</v>
+        <v>0.9999321962822667</v>
       </c>
       <c r="C17" t="n">
-        <v>3.193883912822883e-05</v>
+        <v>6.780371773326548e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999680611608718</v>
+        <v>0.9999321962822667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -885,43 +885,43 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12217.fa</t>
+          <t>even_MAG-GUT12267.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.693410272237912e-06</v>
+        <v>0.9999853462484746</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999903065897278</v>
+        <v>1.46537515253972e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999903065897278</v>
+        <v>0.9999853462484746</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12225.fa</t>
+          <t>even_MAG-GUT12348.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9960681538175273</v>
+        <v>0.9999969710348194</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003931846182472685</v>
+        <v>3.028965180556172e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9960681538175273</v>
+        <v>0.9999969710348194</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -937,43 +937,43 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12256.fa</t>
+          <t>even_MAG-GUT12361.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999321962822667</v>
+        <v>2.179812093550116e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>6.780371773326548e-05</v>
+        <v>0.9999782018790645</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999321962822667</v>
+        <v>0.9999782018790645</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12267.fa</t>
+          <t>even_MAG-GUT12377.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999853462484746</v>
+        <v>0.9984797931498473</v>
       </c>
       <c r="C21" t="n">
-        <v>1.46537515253972e-05</v>
+        <v>0.001520206850152765</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999853462484746</v>
+        <v>0.9984797931498473</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -989,17 +989,17 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12348.fa</t>
+          <t>even_MAG-GUT12481.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999969710348194</v>
+        <v>0.9999088868741579</v>
       </c>
       <c r="C22" t="n">
-        <v>3.028965180556172e-06</v>
+        <v>9.111312584206747e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999969710348194</v>
+        <v>0.9999088868741579</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1015,17 +1015,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12361.fa</t>
+          <t>even_MAG-GUT12482.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.179812093550116e-05</v>
+        <v>0.0002720697390981019</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9999782018790645</v>
+        <v>0.9997279302609019</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999782018790645</v>
+        <v>0.9997279302609019</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1041,17 +1041,17 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12377.fa</t>
+          <t>even_MAG-GUT12789.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9984797931498473</v>
+        <v>0.9986484362239637</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001520206850152765</v>
+        <v>0.001351563776036342</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9984797931498473</v>
+        <v>0.9986484362239637</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1067,43 +1067,43 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12481.fa</t>
+          <t>even_MAG-GUT12794.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999088868741579</v>
+        <v>8.847122393629281e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>9.111312584206747e-05</v>
+        <v>0.9999115287760637</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999088868741579</v>
+        <v>0.9999115287760637</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12482.fa</t>
+          <t>even_MAG-GUT12944.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0002720697390981019</v>
+        <v>2.451816025561548e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9997279302609019</v>
+        <v>0.9999754818397444</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997279302609019</v>
+        <v>0.9999754818397444</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1119,69 +1119,69 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12789.fa</t>
+          <t>even_MAG-GUT13480.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9986484362239637</v>
+        <v>4.591693897149084e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001351563776036342</v>
+        <v>0.9999540830610285</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9986484362239637</v>
+        <v>0.9999540830610285</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12794.fa</t>
+          <t>even_MAG-GUT13549.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.847122393629281e-05</v>
+        <v>0.9999902658283409</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9999115287760637</v>
+        <v>9.734171659054757e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999115287760637</v>
+        <v>0.9999902658283409</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12944.fa</t>
+          <t>even_MAG-GUT13816.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.451816025561548e-05</v>
+        <v>0.0002399449954240129</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9999754818397444</v>
+        <v>0.999760055004576</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9999754818397444</v>
+        <v>0.999760055004576</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1197,17 +1197,17 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12991.fa</t>
+          <t>even_MAG-GUT13881.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00453986285295116</v>
+        <v>0.01178766274978382</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9954601371470488</v>
+        <v>0.9882123372502162</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9954601371470488</v>
+        <v>0.9882123372502162</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1223,17 +1223,17 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13170.fa</t>
+          <t>even_MAG-GUT13955.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01662042041273126</v>
+        <v>4.614508804956508e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9833795795872687</v>
+        <v>0.999995385491195</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9833795795872687</v>
+        <v>0.999995385491195</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1249,17 +1249,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13480.fa</t>
+          <t>even_MAG-GUT14050.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.591693897149084e-05</v>
+        <v>0.004419136575054994</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9999540830610285</v>
+        <v>0.995580863424945</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9999540830610285</v>
+        <v>0.995580863424945</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1275,17 +1275,17 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13549.fa</t>
+          <t>even_MAG-GUT14112.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9999902658283409</v>
+        <v>0.9999962801300939</v>
       </c>
       <c r="C33" t="n">
-        <v>9.734171659054757e-06</v>
+        <v>3.719869906103785e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9999902658283409</v>
+        <v>0.9999962801300939</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1301,17 +1301,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13637.fa</t>
+          <t>even_MAG-GUT14172.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.009564145892431375</v>
+        <v>2.467880235945686e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9904358541075686</v>
+        <v>0.9999753211976405</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9904358541075686</v>
+        <v>0.9999753211976405</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1327,17 +1327,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13816.fa</t>
+          <t>even_MAG-GUT14572.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0002399449954240129</v>
+        <v>0.0004231443454686401</v>
       </c>
       <c r="C35" t="n">
-        <v>0.999760055004576</v>
+        <v>0.9995768556545314</v>
       </c>
       <c r="D35" t="n">
-        <v>0.999760055004576</v>
+        <v>0.9995768556545314</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1353,17 +1353,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13881.fa</t>
+          <t>even_MAG-GUT14827.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01178766274978382</v>
+        <v>2.286567171494447e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9882123372502162</v>
+        <v>0.9999977134328285</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9882123372502162</v>
+        <v>0.9999977134328285</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1379,43 +1379,43 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13955.fa</t>
+          <t>even_MAG-GUT14915.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.614508804956508e-06</v>
+        <v>0.9999908627459718</v>
       </c>
       <c r="C37" t="n">
-        <v>0.999995385491195</v>
+        <v>9.13725402817677e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.999995385491195</v>
+        <v>0.9999908627459718</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14050.fa</t>
+          <t>even_MAG-GUT15246.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.004419136575054994</v>
+        <v>0.002819795806567993</v>
       </c>
       <c r="C38" t="n">
-        <v>0.995580863424945</v>
+        <v>0.997180204193432</v>
       </c>
       <c r="D38" t="n">
-        <v>0.995580863424945</v>
+        <v>0.997180204193432</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1431,43 +1431,43 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14112.fa</t>
+          <t>even_MAG-GUT16149.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9999962801300939</v>
+        <v>0.0002394247434042152</v>
       </c>
       <c r="C39" t="n">
-        <v>3.719869906103785e-06</v>
+        <v>0.9997605752565958</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9999962801300939</v>
+        <v>0.9997605752565958</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14125.fa</t>
+          <t>even_MAG-GUT16625.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.009564145892431375</v>
+        <v>0.0001748500235760897</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9904358541075686</v>
+        <v>0.9998251499764239</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9904358541075686</v>
+        <v>0.9998251499764239</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1483,17 +1483,17 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14172.fa</t>
+          <t>even_MAG-GUT16715.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.467880235945686e-05</v>
+        <v>3.235217406027946e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9999753211976405</v>
+        <v>0.9999676478259397</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9999753211976405</v>
+        <v>0.9999676478259397</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1509,17 +1509,17 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14250.fa</t>
+          <t>even_MAG-GUT16984.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001261953476248467</v>
+        <v>8.835493028325203e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9987380465237515</v>
+        <v>0.9999911645069717</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9987380465237515</v>
+        <v>0.9999911645069717</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1535,17 +1535,17 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14532.fa</t>
+          <t>even_MAG-GUT17598.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.005448360412526276</v>
+        <v>1.426300431761618e-06</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9945516395874737</v>
+        <v>0.9999985736995682</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9945516395874737</v>
+        <v>0.9999985736995682</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1561,17 +1561,17 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14572.fa</t>
+          <t>even_MAG-GUT1763.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0004231443454686401</v>
+        <v>0.002720546742183361</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9995768556545314</v>
+        <v>0.9972794532578166</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9995768556545314</v>
+        <v>0.9972794532578166</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1587,17 +1587,17 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14827.fa</t>
+          <t>even_MAG-GUT18024.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.286567171494447e-06</v>
+        <v>2.786743955596193e-06</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9999977134328285</v>
+        <v>0.9999972132560444</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9999977134328285</v>
+        <v>0.9999972132560444</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1613,43 +1613,43 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14915.fa</t>
+          <t>even_MAG-GUT18361.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9999908627459718</v>
+        <v>0.003812334471468115</v>
       </c>
       <c r="C46" t="n">
-        <v>9.13725402817677e-06</v>
+        <v>0.9961876655285319</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9999908627459718</v>
+        <v>0.9961876655285319</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15246.fa</t>
+          <t>even_MAG-GUT18974.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.002819795806567993</v>
+        <v>0.004787810928901459</v>
       </c>
       <c r="C47" t="n">
-        <v>0.997180204193432</v>
+        <v>0.9952121890710985</v>
       </c>
       <c r="D47" t="n">
-        <v>0.997180204193432</v>
+        <v>0.9952121890710985</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1665,43 +1665,43 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16149.fa</t>
+          <t>even_MAG-GUT19089.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0002394247434042152</v>
+        <v>0.9994539694079201</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9997605752565958</v>
+        <v>0.0005460305920799557</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9997605752565958</v>
+        <v>0.9994539694079201</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16156.fa</t>
+          <t>even_MAG-GUT19408.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006493091489228608</v>
+        <v>0.01746779416678246</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9935069085107714</v>
+        <v>0.9825322058332177</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9935069085107714</v>
+        <v>0.9825322058332177</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1717,17 +1717,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16625.fa</t>
+          <t>even_MAG-GUT19561.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0001748500235760897</v>
+        <v>3.443107727263417e-06</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9998251499764239</v>
+        <v>0.9999965568922727</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9998251499764239</v>
+        <v>0.9999965568922727</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1743,17 +1743,17 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16715.fa</t>
+          <t>even_MAG-GUT19599.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3.235217406027946e-05</v>
+        <v>2.341740169220508e-06</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9999676478259397</v>
+        <v>0.9999976582598308</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9999676478259397</v>
+        <v>0.9999976582598308</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1769,17 +1769,17 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16984.fa</t>
+          <t>even_MAG-GUT19853.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8.835493028325203e-06</v>
+        <v>0.0001008402645289452</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9999911645069717</v>
+        <v>0.9998991597354711</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9999911645069717</v>
+        <v>0.9998991597354711</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1795,17 +1795,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17271.fa</t>
+          <t>even_MAG-GUT2110.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01793133758726306</v>
+        <v>0.0002891177674552159</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9820686624127369</v>
+        <v>0.9997108822325448</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9820686624127369</v>
+        <v>0.9997108822325448</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1821,17 +1821,17 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17598.fa</t>
+          <t>even_MAG-GUT21424.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.426300431761618e-06</v>
+        <v>9.963202055596199e-07</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9999985736995682</v>
+        <v>0.9999990036797944</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9999985736995682</v>
+        <v>0.9999990036797944</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1847,17 +1847,17 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1763.fa</t>
+          <t>even_MAG-GUT22670.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.002720546742183361</v>
+        <v>9.902137133233069e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9972794532578166</v>
+        <v>0.9999009786286677</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9972794532578166</v>
+        <v>0.9999009786286677</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1873,43 +1873,43 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18024.fa</t>
+          <t>even_MAG-GUT23979.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.786743955596193e-06</v>
+        <v>0.9990508993624138</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9999972132560444</v>
+        <v>0.0009491006375862497</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9999972132560444</v>
+        <v>0.9990508993624138</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18195.fa</t>
+          <t>even_MAG-GUT24564.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0005286017794609021</v>
+        <v>0.0001220429844362991</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9994713982205391</v>
+        <v>0.9998779570155637</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9994713982205391</v>
+        <v>0.9998779570155637</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1925,17 +1925,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18210.fa</t>
+          <t>even_MAG-GUT24606.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0002235374775371168</v>
+        <v>7.92744247749555e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9997764625224629</v>
+        <v>0.999920725575225</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9997764625224629</v>
+        <v>0.999920725575225</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1951,17 +1951,17 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18312.fa</t>
+          <t>even_MAG-GUT24616.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.004402483040094163</v>
+        <v>0.0002643922881211402</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9955975169599058</v>
+        <v>0.9997356077118789</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9955975169599058</v>
+        <v>0.9997356077118789</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1977,17 +1977,17 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18361.fa</t>
+          <t>even_MAG-GUT24657.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.003812334471468115</v>
+        <v>1.155780239792126e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9961876655285319</v>
+        <v>0.9999884421976021</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9961876655285319</v>
+        <v>0.9999884421976021</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2003,17 +2003,17 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1861.fa</t>
+          <t>even_MAG-GUT24787.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4.25938459225339e-06</v>
+        <v>2.679466632848904e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9999957406154077</v>
+        <v>0.9999732053336715</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9999957406154077</v>
+        <v>0.9999732053336715</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2029,17 +2029,17 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18974.fa</t>
+          <t>even_MAG-GUT24840.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.004787810928901459</v>
+        <v>4.271565804703226e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9952121890710985</v>
+        <v>0.999957284341953</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9952121890710985</v>
+        <v>0.999957284341953</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2055,43 +2055,43 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19089.fa</t>
+          <t>even_MAG-GUT24988.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9994539694079201</v>
+        <v>0.000106909317765691</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0005460305920799557</v>
+        <v>0.9998930906822343</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9994539694079201</v>
+        <v>0.9998930906822343</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19408.fa</t>
+          <t>even_MAG-GUT25022.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01746779416678246</v>
+        <v>3.500545430301649e-06</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9825322058332177</v>
+        <v>0.9999964994545697</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9825322058332177</v>
+        <v>0.9999964994545697</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2107,17 +2107,17 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19561.fa</t>
+          <t>even_MAG-GUT25055.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.443107727263417e-06</v>
+        <v>0.000195177927051704</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9999965568922727</v>
+        <v>0.9998048220729483</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9999965568922727</v>
+        <v>0.9998048220729483</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2133,17 +2133,17 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19592.fa</t>
+          <t>even_MAG-GUT25223.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01101776251148279</v>
+        <v>0.01058988415648676</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9889822374885172</v>
+        <v>0.9894101158435132</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9889822374885172</v>
+        <v>0.9894101158435132</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2159,17 +2159,17 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19599.fa</t>
+          <t>even_MAG-GUT25263.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.341740169220508e-06</v>
+        <v>0.01250835048968568</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9999976582598308</v>
+        <v>0.9874916495103143</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9999976582598308</v>
+        <v>0.9874916495103143</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2185,17 +2185,17 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19853.fa</t>
+          <t>even_MAG-GUT25307.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0001008402645289452</v>
+        <v>9.69121645425508e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9998991597354711</v>
+        <v>0.9999030878354574</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9998991597354711</v>
+        <v>0.9999030878354574</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2211,17 +2211,17 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2110.fa</t>
+          <t>even_MAG-GUT27032.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0002891177674552159</v>
+        <v>9.044457753848434e-07</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9997108822325448</v>
+        <v>0.9999990955542246</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9997108822325448</v>
+        <v>0.9999990955542246</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2237,17 +2237,17 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21424.fa</t>
+          <t>even_MAG-GUT27097.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9.963202055596199e-07</v>
+        <v>0.0001319159000374714</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9999990036797944</v>
+        <v>0.9998680840999625</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9999990036797944</v>
+        <v>0.9998680840999625</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2263,69 +2263,69 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22049.fa</t>
+          <t>even_MAG-GUT27476.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7.663893525799992e-06</v>
+        <v>0.9999388439255528</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9999923361064742</v>
+        <v>6.11560744472843e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9999923361064742</v>
+        <v>0.9999388439255528</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22670.fa</t>
+          <t>even_MAG-GUT27501.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9.902137133233069e-05</v>
+        <v>0.9999882702212092</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9999009786286677</v>
+        <v>1.172977879077555e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9999009786286677</v>
+        <v>0.9999882702212092</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2323.fa</t>
+          <t>even_MAG-GUT2752.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9998205179567237</v>
+        <v>0.9999152177938861</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0001794820432763179</v>
+        <v>8.478220611389582e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9998205179567237</v>
+        <v>0.9999152177938861</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2341,17 +2341,17 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23979.fa</t>
+          <t>even_MAG-GUT27783.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9990508993624138</v>
+        <v>0.9998744726908795</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0009491006375862497</v>
+        <v>0.0001255273091205045</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9990508993624138</v>
+        <v>0.9998744726908795</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2367,355 +2367,355 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24564.fa</t>
+          <t>even_MAG-GUT28018.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0001220429844362991</v>
+        <v>0.9999871317009962</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9998779570155637</v>
+        <v>1.286829900385139e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9998779570155637</v>
+        <v>0.9999871317009962</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24606.fa</t>
+          <t>even_MAG-GUT28028.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7.92744247749555e-05</v>
+        <v>0.9997088697756076</v>
       </c>
       <c r="C76" t="n">
-        <v>0.999920725575225</v>
+        <v>0.0002911302243923795</v>
       </c>
       <c r="D76" t="n">
-        <v>0.999920725575225</v>
+        <v>0.9997088697756076</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24616.fa</t>
+          <t>even_MAG-GUT28206.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0002643922881211402</v>
+        <v>0.99981115177224</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9997356077118789</v>
+        <v>0.0001888482277599736</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9997356077118789</v>
+        <v>0.99981115177224</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24657.fa</t>
+          <t>even_MAG-GUT28651.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.155780239792126e-05</v>
+        <v>0.9996671133327428</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9999884421976021</v>
+        <v>0.0003328866672571864</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9999884421976021</v>
+        <v>0.9996671133327428</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24787.fa</t>
+          <t>even_MAG-GUT28666.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2.679466632848904e-05</v>
+        <v>0.9998934478778997</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9999732053336715</v>
+        <v>0.0001065521221002966</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9999732053336715</v>
+        <v>0.9998934478778997</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24840.fa</t>
+          <t>even_MAG-GUT28677.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4.271565804703226e-05</v>
+        <v>0.9989662571448061</v>
       </c>
       <c r="C80" t="n">
-        <v>0.999957284341953</v>
+        <v>0.001033742855193827</v>
       </c>
       <c r="D80" t="n">
-        <v>0.999957284341953</v>
+        <v>0.9989662571448061</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24988.fa</t>
+          <t>even_MAG-GUT28702.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.000106909317765691</v>
+        <v>0.9973224783103061</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9998930906822343</v>
+        <v>0.002677521689693875</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9998930906822343</v>
+        <v>0.9973224783103061</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25022.fa</t>
+          <t>even_MAG-GUT28960.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3.500545430301649e-06</v>
+        <v>0.9999960369969673</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9999964994545697</v>
+        <v>3.963003032771206e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9999964994545697</v>
+        <v>0.9999960369969673</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25055.fa</t>
+          <t>even_MAG-GUT28964.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.000195177927051704</v>
+        <v>0.9996902669541484</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9998048220729483</v>
+        <v>0.0003097330458515341</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9998048220729483</v>
+        <v>0.9996902669541484</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25075.fa</t>
+          <t>even_MAG-GUT28976.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.001075177246609993</v>
+        <v>0.9999721235885324</v>
       </c>
       <c r="C84" t="n">
-        <v>0.99892482275339</v>
+        <v>2.787641146762652e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>0.99892482275339</v>
+        <v>0.9999721235885324</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25223.fa</t>
+          <t>even_MAG-GUT29001.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01058988415648676</v>
+        <v>0.9999483564655494</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9894101158435132</v>
+        <v>5.164353445067107e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9894101158435132</v>
+        <v>0.9999483564655494</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25263.fa</t>
+          <t>even_MAG-GUT29175.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01250835048968568</v>
+        <v>0.9988376842022023</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9874916495103143</v>
+        <v>0.001162315797797635</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9874916495103143</v>
+        <v>0.9988376842022023</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25307.fa</t>
+          <t>even_MAG-GUT29239.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9.69121645425508e-05</v>
+        <v>0.9999353621864208</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9999030878354574</v>
+        <v>6.463781357918564e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9999030878354574</v>
+        <v>0.9999353621864208</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2607.fa</t>
+          <t>even_MAG-GUT2937.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9999922163013774</v>
+        <v>0.999044603942604</v>
       </c>
       <c r="C88" t="n">
-        <v>7.783698622678662e-06</v>
+        <v>0.0009553960573959886</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9999922163013774</v>
+        <v>0.999044603942604</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2731,43 +2731,43 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27032.fa</t>
+          <t>even_MAG-GUT29515.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>9.044457753848434e-07</v>
+        <v>0.9999100659401234</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9999990955542246</v>
+        <v>8.993405987654759e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9999990955542246</v>
+        <v>0.9999100659401234</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27097.fa</t>
+          <t>even_MAG-GUT29557.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0001319159000374714</v>
+        <v>7.49539813271749e-06</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9998680840999625</v>
+        <v>0.9999925046018673</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9998680840999625</v>
+        <v>0.9999925046018673</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2783,17 +2783,17 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27476.fa</t>
+          <t>even_MAG-GUT29569.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9999388439255528</v>
+        <v>0.9998123923504785</v>
       </c>
       <c r="C91" t="n">
-        <v>6.11560744472843e-05</v>
+        <v>0.0001876076495215078</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9999388439255528</v>
+        <v>0.9998123923504785</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2809,69 +2809,69 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27501.fa</t>
+          <t>even_MAG-GUT29963.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9999882702212092</v>
+        <v>2.196730072290265e-07</v>
       </c>
       <c r="C92" t="n">
-        <v>1.172977879077555e-05</v>
+        <v>0.9999997803269928</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9999882702212092</v>
+        <v>0.9999997803269928</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2752.fa</t>
+          <t>even_MAG-GUT30085.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9999152177938861</v>
+        <v>0.0004317557290379748</v>
       </c>
       <c r="C93" t="n">
-        <v>8.478220611389582e-05</v>
+        <v>0.999568244270962</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9999152177938861</v>
+        <v>0.999568244270962</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27781.fa</t>
+          <t>even_MAG-GUT31276.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.999888598425289</v>
+        <v>0.9998644222813683</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0001114015747109738</v>
+        <v>0.0001355777186316794</v>
       </c>
       <c r="D94" t="n">
-        <v>0.999888598425289</v>
+        <v>0.9998644222813683</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2887,43 +2887,43 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27783.fa</t>
+          <t>even_MAG-GUT31546.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9998744726908795</v>
+        <v>0.005149246823422438</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0001255273091205045</v>
+        <v>0.9948507531765776</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9998744726908795</v>
+        <v>0.9948507531765776</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28018.fa</t>
+          <t>even_MAG-GUT31702.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9999871317009962</v>
+        <v>0.9999918550691379</v>
       </c>
       <c r="C96" t="n">
-        <v>1.286829900385139e-05</v>
+        <v>8.144930862051047e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9999871317009962</v>
+        <v>0.9999918550691379</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2939,95 +2939,95 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28028.fa</t>
+          <t>even_MAG-GUT31872.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9997088697756076</v>
+        <v>0.008961897109598715</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0002911302243923795</v>
+        <v>0.9910381028904013</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9997088697756076</v>
+        <v>0.9910381028904013</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28206.fa</t>
+          <t>even_MAG-GUT32354.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.99981115177224</v>
+        <v>4.497377729506535e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0001888482277599736</v>
+        <v>0.9999550262227049</v>
       </c>
       <c r="D98" t="n">
-        <v>0.99981115177224</v>
+        <v>0.9999550262227049</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28651.fa</t>
+          <t>even_MAG-GUT32469.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9996671133327428</v>
+        <v>0.004771979548108596</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0003328866672571864</v>
+        <v>0.9952280204518914</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9996671133327428</v>
+        <v>0.9952280204518914</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28666.fa</t>
+          <t>even_MAG-GUT32803.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9998934478778997</v>
+        <v>0.9967419907643041</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0001065521221002966</v>
+        <v>0.003258009235695879</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9998934478778997</v>
+        <v>0.9967419907643041</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3043,173 +3043,173 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28677.fa</t>
+          <t>even_MAG-GUT33566.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9989662571448061</v>
+        <v>1.310218793904028e-06</v>
       </c>
       <c r="C101" t="n">
-        <v>0.001033742855193827</v>
+        <v>0.9999986897812061</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9989662571448061</v>
+        <v>0.9999986897812061</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28702.fa</t>
+          <t>even_MAG-GUT3478.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9973224783103061</v>
+        <v>0.0006006666993003673</v>
       </c>
       <c r="C102" t="n">
-        <v>0.002677521689693875</v>
+        <v>0.9993993333006996</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9973224783103061</v>
+        <v>0.9993993333006996</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28960.fa</t>
+          <t>even_MAG-GUT35394.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9999960369969673</v>
+        <v>6.651187735462472e-06</v>
       </c>
       <c r="C103" t="n">
-        <v>3.963003032771206e-06</v>
+        <v>0.9999933488122645</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9999960369969673</v>
+        <v>0.9999933488122645</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28964.fa</t>
+          <t>even_MAG-GUT35641.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9996902669541484</v>
+        <v>1.463731609030461e-06</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0003097330458515341</v>
+        <v>0.999998536268391</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9996902669541484</v>
+        <v>0.999998536268391</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28976.fa</t>
+          <t>even_MAG-GUT36218.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9999721235885324</v>
+        <v>5.288079010568048e-06</v>
       </c>
       <c r="C105" t="n">
-        <v>2.787641146762652e-05</v>
+        <v>0.9999947119209894</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9999721235885324</v>
+        <v>0.9999947119209894</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29001.fa</t>
+          <t>even_MAG-GUT36683.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9999483564655494</v>
+        <v>3.895106340834342e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>5.164353445067107e-05</v>
+        <v>0.9999610489365917</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9999483564655494</v>
+        <v>0.9999610489365917</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29175.fa</t>
+          <t>even_MAG-GUT37249.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9988376842022023</v>
+        <v>0.9999985282171256</v>
       </c>
       <c r="C107" t="n">
-        <v>0.001162315797797635</v>
+        <v>1.471782874367729e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9988376842022023</v>
+        <v>0.9999985282171256</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3225,43 +3225,43 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29239.fa</t>
+          <t>even_MAG-GUT37389.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9999353621864208</v>
+        <v>7.562292599905263e-07</v>
       </c>
       <c r="C108" t="n">
-        <v>6.463781357918564e-05</v>
+        <v>0.99999924377074</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9999353621864208</v>
+        <v>0.99999924377074</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2937.fa</t>
+          <t>even_MAG-GUT37818.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.999044603942604</v>
+        <v>0.9999938858621488</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0009553960573959886</v>
+        <v>6.114137851242223e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>0.999044603942604</v>
+        <v>0.9999938858621488</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3277,43 +3277,43 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29515.fa</t>
+          <t>even_MAG-GUT37939.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9999100659401234</v>
+        <v>4.169067927972669e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>8.993405987654759e-05</v>
+        <v>0.9999583093207203</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9999100659401234</v>
+        <v>0.9999583093207203</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29557.fa</t>
+          <t>even_MAG-GUT38856.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>7.49539813271749e-06</v>
+        <v>3.974939573714309e-06</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9999925046018673</v>
+        <v>0.9999960250604263</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9999925046018673</v>
+        <v>0.9999960250604263</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3329,43 +3329,43 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29569.fa</t>
+          <t>even_MAG-GUT38999.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9998123923504785</v>
+        <v>0.007265078929128532</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0001876076495215078</v>
+        <v>0.9927349210708715</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9998123923504785</v>
+        <v>0.9927349210708715</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29963.fa</t>
+          <t>even_MAG-GUT39108.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2.196730072290265e-07</v>
+        <v>6.216104590395233e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9999997803269928</v>
+        <v>0.999937838954096</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9999997803269928</v>
+        <v>0.999937838954096</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3381,17 +3381,17 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30085.fa</t>
+          <t>even_MAG-GUT39136.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0004317557290379748</v>
+        <v>2.81382481936987e-06</v>
       </c>
       <c r="C114" t="n">
-        <v>0.999568244270962</v>
+        <v>0.9999971861751806</v>
       </c>
       <c r="D114" t="n">
-        <v>0.999568244270962</v>
+        <v>0.9999971861751806</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3407,43 +3407,43 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31276.fa</t>
+          <t>even_MAG-GUT39174.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9998644222813683</v>
+        <v>2.815274280254521e-06</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0001355777186316794</v>
+        <v>0.9999971847257197</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9998644222813683</v>
+        <v>0.9999971847257197</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31546.fa</t>
+          <t>even_MAG-GUT3922.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.005149246823422438</v>
+        <v>0.0004482563106915638</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9948507531765776</v>
+        <v>0.9995517436893084</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9948507531765776</v>
+        <v>0.9995517436893084</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3459,69 +3459,69 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31702.fa</t>
+          <t>even_MAG-GUT39460.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.9999918550691379</v>
+        <v>0.0001624439577657677</v>
       </c>
       <c r="C117" t="n">
-        <v>8.144930862051047e-06</v>
+        <v>0.9998375560422342</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9999918550691379</v>
+        <v>0.9998375560422342</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31872.fa</t>
+          <t>even_MAG-GUT39588.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.008961897109598715</v>
+        <v>0.9999710166316311</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9910381028904013</v>
+        <v>2.898336836887602e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9910381028904013</v>
+        <v>0.9999710166316311</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32354.fa</t>
+          <t>even_MAG-GUT3986.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4.497377729506535e-05</v>
+        <v>6.781030689140266e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9999550262227049</v>
+        <v>0.9999321896931086</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9999550262227049</v>
+        <v>0.9999321896931086</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3537,43 +3537,43 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32469.fa</t>
+          <t>even_MAG-GUT399.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.004771979548108596</v>
+        <v>0.9991648217141762</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9952280204518914</v>
+        <v>0.0008351782858237816</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9952280204518914</v>
+        <v>0.9991648217141762</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32803.fa</t>
+          <t>even_MAG-GUT40004.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.9967419907643041</v>
+        <v>0.9998114445642431</v>
       </c>
       <c r="C121" t="n">
-        <v>0.003258009235695879</v>
+        <v>0.0001885554357568927</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9967419907643041</v>
+        <v>0.9998114445642431</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3589,173 +3589,173 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33566.fa</t>
+          <t>even_MAG-GUT40305.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1.310218793904028e-06</v>
+        <v>0.9996738682547015</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9999986897812061</v>
+        <v>0.0003261317452984459</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9999986897812061</v>
+        <v>0.9996738682547015</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3478.fa</t>
+          <t>even_MAG-GUT40499.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.0006006666993003673</v>
+        <v>0.9996069200574628</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9993993333006996</v>
+        <v>0.0003930799425372221</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9993993333006996</v>
+        <v>0.9996069200574628</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35394.fa</t>
+          <t>even_MAG-GUT40831.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>6.651187735462472e-06</v>
+        <v>0.999861528928866</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9999933488122645</v>
+        <v>0.0001384710711339911</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9999933488122645</v>
+        <v>0.999861528928866</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35641.fa</t>
+          <t>even_MAG-GUT42116.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.463731609030461e-06</v>
+        <v>0.9986763862968073</v>
       </c>
       <c r="C125" t="n">
-        <v>0.999998536268391</v>
+        <v>0.00132361370319271</v>
       </c>
       <c r="D125" t="n">
-        <v>0.999998536268391</v>
+        <v>0.9986763862968073</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36148.fa</t>
+          <t>even_MAG-GUT42210.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.005601330417532968</v>
+        <v>0.9998043071031242</v>
       </c>
       <c r="C126" t="n">
-        <v>0.994398669582467</v>
+        <v>0.0001956928968758685</v>
       </c>
       <c r="D126" t="n">
-        <v>0.994398669582467</v>
+        <v>0.9998043071031242</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36218.fa</t>
+          <t>even_MAG-GUT42294.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>5.288079010568048e-06</v>
+        <v>0.9989983400803549</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9999947119209894</v>
+        <v>0.001001659919645092</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9999947119209894</v>
+        <v>0.9989983400803549</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36683.fa</t>
+          <t>even_MAG-GUT4260.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3.895106340834342e-05</v>
+        <v>7.757429611332523e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9999610489365917</v>
+        <v>0.9999224257038867</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9999610489365917</v>
+        <v>0.9999224257038867</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3771,43 +3771,43 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37249.fa</t>
+          <t>even_MAG-GUT43146.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.9999985282171256</v>
+        <v>0.000134691162992695</v>
       </c>
       <c r="C129" t="n">
-        <v>1.471782874367729e-06</v>
+        <v>0.9998653088370073</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9999985282171256</v>
+        <v>0.9998653088370073</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37389.fa</t>
+          <t>even_MAG-GUT43227.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>7.562292599905263e-07</v>
+        <v>1.133057071056598e-06</v>
       </c>
       <c r="C130" t="n">
-        <v>0.99999924377074</v>
+        <v>0.9999988669429289</v>
       </c>
       <c r="D130" t="n">
-        <v>0.99999924377074</v>
+        <v>0.9999988669429289</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3823,17 +3823,17 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37559.fa</t>
+          <t>even_MAG-GUT43269.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9985192949612373</v>
+        <v>0.99989676046842</v>
       </c>
       <c r="C131" t="n">
-        <v>0.001480705038762729</v>
+        <v>0.0001032395315799273</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9985192949612373</v>
+        <v>0.99989676046842</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3849,43 +3849,43 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37818.fa</t>
+          <t>even_MAG-GUT4338.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.9999938858621488</v>
+        <v>3.88167353659874e-06</v>
       </c>
       <c r="C132" t="n">
-        <v>6.114137851242223e-06</v>
+        <v>0.9999961183264634</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9999938858621488</v>
+        <v>0.9999961183264634</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37939.fa</t>
+          <t>even_MAG-GUT43440.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>4.169067927972669e-05</v>
+        <v>1.156553726677778e-05</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9999583093207203</v>
+        <v>0.9999884344627332</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9999583093207203</v>
+        <v>0.9999884344627332</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3901,147 +3901,147 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37961.fa</t>
+          <t>even_MAG-GUT43691.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3.152635364989109e-07</v>
+        <v>0.9998621878101223</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9999996847364635</v>
+        <v>0.0001378121898777777</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9999996847364635</v>
+        <v>0.9998621878101223</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38016.fa</t>
+          <t>even_MAG-GUT44748.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.0008266549457098815</v>
+        <v>0.9983216053106087</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9991733450542901</v>
+        <v>0.001678394689391399</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9991733450542901</v>
+        <v>0.9983216053106087</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38856.fa</t>
+          <t>even_MAG-GUT45352.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3.974939573714309e-06</v>
+        <v>0.9995674675392195</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9999960250604263</v>
+        <v>0.0004325324607804296</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9999960250604263</v>
+        <v>0.9995674675392195</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38999.fa</t>
+          <t>even_MAG-GUT45758.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.007265078929128532</v>
+        <v>0.9999348645088705</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9927349210708715</v>
+        <v>6.513549112946847e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9927349210708715</v>
+        <v>0.9999348645088705</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39108.fa</t>
+          <t>even_MAG-GUT46039.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>6.216104590395233e-05</v>
+        <v>0.9998515015206023</v>
       </c>
       <c r="C138" t="n">
-        <v>0.999937838954096</v>
+        <v>0.0001484984793976962</v>
       </c>
       <c r="D138" t="n">
-        <v>0.999937838954096</v>
+        <v>0.9998515015206023</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39136.fa</t>
+          <t>even_MAG-GUT46199.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2.81382481936987e-06</v>
+        <v>0.0008862020739820453</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9999971861751806</v>
+        <v>0.999113797926018</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9999971861751806</v>
+        <v>0.999113797926018</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4057,17 +4057,17 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39174.fa</t>
+          <t>even_MAG-GUT47180.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2.815274280254521e-06</v>
+        <v>7.86131927510425e-06</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9999971847257197</v>
+        <v>0.9999921386807249</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9999971847257197</v>
+        <v>0.9999921386807249</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4083,43 +4083,43 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3922.fa</t>
+          <t>even_MAG-GUT48302.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.0004482563106915638</v>
+        <v>0.999935839685175</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9995517436893084</v>
+        <v>6.416031482505854e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9995517436893084</v>
+        <v>0.999935839685175</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39245.fa</t>
+          <t>even_MAG-GUT49294.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.001030333456886856</v>
+        <v>4.559345020060945e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9989696665431131</v>
+        <v>0.9999544065497994</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9989696665431131</v>
+        <v>0.9999544065497994</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4135,43 +4135,43 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39460.fa</t>
+          <t>even_MAG-GUT50003.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.0001624439577657677</v>
+        <v>0.9995996314819279</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9998375560422342</v>
+        <v>0.0004003685180720912</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9998375560422342</v>
+        <v>0.9995996314819279</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39588.fa</t>
+          <t>even_MAG-GUT50015.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.9999710166316311</v>
+        <v>0.9998733576305888</v>
       </c>
       <c r="C144" t="n">
-        <v>2.898336836887602e-05</v>
+        <v>0.0001266423694111844</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9999710166316311</v>
+        <v>0.9998733576305888</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4187,17 +4187,17 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3986.fa</t>
+          <t>even_MAG-GUT5085.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>6.781030689140266e-05</v>
+        <v>0.0001886647478411829</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9999321896931086</v>
+        <v>0.9998113352521588</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9999321896931086</v>
+        <v>0.9998113352521588</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4213,17 +4213,17 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT399.fa</t>
+          <t>even_MAG-GUT50866.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.9991648217141762</v>
+        <v>0.9983851951098237</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0008351782858237816</v>
+        <v>0.001614804890176343</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9991648217141762</v>
+        <v>0.9983851951098237</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4239,17 +4239,17 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40004.fa</t>
+          <t>even_MAG-GUT50872.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.9998114445642431</v>
+        <v>0.9999176621928001</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0001885554357568927</v>
+        <v>8.233780719986265e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9998114445642431</v>
+        <v>0.9999176621928001</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4265,17 +4265,17 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40305.fa</t>
+          <t>even_MAG-GUT50906.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.9996738682547015</v>
+        <v>0.9968463727180544</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0003261317452984459</v>
+        <v>0.003153627281945543</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9996738682547015</v>
+        <v>0.9968463727180544</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4291,17 +4291,17 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40499.fa</t>
+          <t>even_MAG-GUT50925.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.9996069200574628</v>
+        <v>0.999961526600293</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0003930799425372221</v>
+        <v>3.847339970693978e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9996069200574628</v>
+        <v>0.999961526600293</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4317,17 +4317,17 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40831.fa</t>
+          <t>even_MAG-GUT50928.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.999861528928866</v>
+        <v>0.9998000162999069</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0001384710711339911</v>
+        <v>0.0001999837000931519</v>
       </c>
       <c r="D150" t="n">
-        <v>0.999861528928866</v>
+        <v>0.9998000162999069</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4343,17 +4343,17 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42116.fa</t>
+          <t>even_MAG-GUT50936.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.9986763862968073</v>
+        <v>0.9999523761400466</v>
       </c>
       <c r="C151" t="n">
-        <v>0.00132361370319271</v>
+        <v>4.762385995339972e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9986763862968073</v>
+        <v>0.9999523761400466</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4369,17 +4369,17 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42210.fa</t>
+          <t>even_MAG-GUT53133.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.9998043071031242</v>
+        <v>0.9999848730310277</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0001956928968758685</v>
+        <v>1.512696897236147e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9998043071031242</v>
+        <v>0.9999848730310277</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4395,43 +4395,43 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42294.fa</t>
+          <t>even_MAG-GUT56545.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.9989983400803549</v>
+        <v>4.596049812510827e-06</v>
       </c>
       <c r="C153" t="n">
-        <v>0.001001659919645092</v>
+        <v>0.9999954039501875</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9989983400803549</v>
+        <v>0.9999954039501875</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4260.fa</t>
+          <t>even_MAG-GUT56566.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>7.757429611332523e-05</v>
+        <v>4.223599835639913e-05</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9999224257038867</v>
+        <v>0.9999577640016436</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9999224257038867</v>
+        <v>0.9999577640016436</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4447,17 +4447,17 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43146.fa</t>
+          <t>even_MAG-GUT56852.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.000134691162992695</v>
+        <v>0.0001494201734453249</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9998653088370073</v>
+        <v>0.9998505798265547</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9998653088370073</v>
+        <v>0.9998505798265547</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4473,17 +4473,17 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43227.fa</t>
+          <t>even_MAG-GUT57085.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1.133057071056598e-06</v>
+        <v>9.557720472841424e-06</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9999988669429289</v>
+        <v>0.9999904422795272</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9999988669429289</v>
+        <v>0.9999904422795272</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4499,43 +4499,43 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43269.fa</t>
+          <t>even_MAG-GUT58179.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.99989676046842</v>
+        <v>0.0002004336207716007</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0001032395315799273</v>
+        <v>0.9997995663792284</v>
       </c>
       <c r="D157" t="n">
-        <v>0.99989676046842</v>
+        <v>0.9997995663792284</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4338.fa</t>
+          <t>even_MAG-GUT58214.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3.88167353659874e-06</v>
+        <v>0.000897693491753726</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9999961183264634</v>
+        <v>0.9991023065082463</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9999961183264634</v>
+        <v>0.9991023065082463</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4551,17 +4551,17 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43440.fa</t>
+          <t>even_MAG-GUT60374.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1.156553726677778e-05</v>
+        <v>1.233670889866367e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9999884344627332</v>
+        <v>0.9999876632911013</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9999884344627332</v>
+        <v>0.9999876632911013</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4577,69 +4577,69 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43691.fa</t>
+          <t>even_MAG-GUT61637.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.9998621878101223</v>
+        <v>1.92631888296102e-06</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0001378121898777777</v>
+        <v>0.999998073681117</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9998621878101223</v>
+        <v>0.999998073681117</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44212.fa</t>
+          <t>even_MAG-GUT61794.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.9999564995008119</v>
+        <v>1.222175051385221e-05</v>
       </c>
       <c r="C161" t="n">
-        <v>4.350049918816481e-05</v>
+        <v>0.9999877782494861</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9999564995008119</v>
+        <v>0.9999877782494861</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44433.fa</t>
+          <t>even_MAG-GUT62134.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.0001293129785886471</v>
+        <v>4.92728632912609e-05</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9998706870214114</v>
+        <v>0.9999507271367087</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9998706870214114</v>
+        <v>0.9999507271367087</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4655,69 +4655,69 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44748.fa</t>
+          <t>even_MAG-GUT62370.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.9983216053106087</v>
+        <v>0.005638651241913983</v>
       </c>
       <c r="C163" t="n">
-        <v>0.001678394689391399</v>
+        <v>0.994361348758086</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9983216053106087</v>
+        <v>0.994361348758086</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44855.fa</t>
+          <t>even_MAG-GUT62468.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.9997515851801293</v>
+        <v>5.586295127357754e-05</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0002484148198706612</v>
+        <v>0.9999441370487264</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9997515851801293</v>
+        <v>0.9999441370487264</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45352.fa</t>
+          <t>even_MAG-GUT65550.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.9995674675392195</v>
+        <v>0.9998114445642431</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0004325324607804296</v>
+        <v>0.0001885554357568927</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9995674675392195</v>
+        <v>0.9998114445642431</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4733,17 +4733,17 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45758.fa</t>
+          <t>even_MAG-GUT65895.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.9999348645088705</v>
+        <v>0.9999507950189196</v>
       </c>
       <c r="C166" t="n">
-        <v>6.513549112946847e-05</v>
+        <v>4.920498108037202e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9999348645088705</v>
+        <v>0.9999507950189196</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4759,121 +4759,121 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46039.fa</t>
+          <t>even_MAG-GUT6615.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.9998515015206023</v>
+        <v>4.859080975494479e-05</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0001484984793976962</v>
+        <v>0.9999514091902451</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9998515015206023</v>
+        <v>0.9999514091902451</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46199.fa</t>
+          <t>even_MAG-GUT6623.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.0008862020739820453</v>
+        <v>0.9999853795460817</v>
       </c>
       <c r="C168" t="n">
-        <v>0.999113797926018</v>
+        <v>1.462045391829598e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>0.999113797926018</v>
+        <v>0.9999853795460817</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46496.fa</t>
+          <t>even_MAG-GUT66279.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>6.82906829896357e-05</v>
+        <v>0.9998284973311942</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9999317093170104</v>
+        <v>0.0001715026688058277</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9999317093170104</v>
+        <v>0.9998284973311942</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46649.fa</t>
+          <t>even_MAG-GUT66843.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.0004880599082740522</v>
+        <v>0.9998097290299013</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9995119400917259</v>
+        <v>0.000190270970098752</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9995119400917259</v>
+        <v>0.9998097290299013</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47176.fa</t>
+          <t>even_MAG-GUT66846.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.9999633427149267</v>
+        <v>0.9999970078005926</v>
       </c>
       <c r="C171" t="n">
-        <v>3.66572850732514e-05</v>
+        <v>2.99219940735129e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9999633427149267</v>
+        <v>0.9999970078005926</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4889,17 +4889,17 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47180.fa</t>
+          <t>even_MAG-GUT66915.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>7.86131927510425e-06</v>
+        <v>1.001530336353085e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9999921386807249</v>
+        <v>0.9999899846966365</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9999921386807249</v>
+        <v>0.9999899846966365</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4915,17 +4915,17 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48302.fa</t>
+          <t>even_MAG-GUT6708.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.999935839685175</v>
+        <v>0.9999329815464099</v>
       </c>
       <c r="C173" t="n">
-        <v>6.416031482505854e-05</v>
+        <v>6.701845359018255e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>0.999935839685175</v>
+        <v>0.9999329815464099</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4941,17 +4941,17 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48773.fa</t>
+          <t>even_MAG-GUT6727.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4.361605838054672e-06</v>
+        <v>5.872703531228929e-05</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9999956383941619</v>
+        <v>0.9999412729646877</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9999956383941619</v>
+        <v>0.9999412729646877</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4967,17 +4967,17 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48926.fa</t>
+          <t>even_MAG-GUT6753.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.00020013547720521</v>
+        <v>6.662168963278425e-06</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9997998645227948</v>
+        <v>0.9999933378310367</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9997998645227948</v>
+        <v>0.9999933378310367</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4993,17 +4993,17 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49076.fa</t>
+          <t>even_MAG-GUT67531.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3.00091109278755e-05</v>
+        <v>2.897380037969466e-05</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9999699908890721</v>
+        <v>0.9999710261996203</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9999699908890721</v>
+        <v>0.9999710261996203</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -5019,121 +5019,121 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49107.fa</t>
+          <t>even_MAG-GUT67550.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.0002052529089148214</v>
+        <v>0.9989776562717068</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9997947470910852</v>
+        <v>0.001022343728293276</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9997947470910852</v>
+        <v>0.9989776562717068</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49445.fa</t>
+          <t>even_MAG-GUT67681.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.000170920882383685</v>
+        <v>0.9997659860560375</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9998290791176163</v>
+        <v>0.0002340139439624672</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9998290791176163</v>
+        <v>0.9997659860560375</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49487.fa</t>
+          <t>even_MAG-GUT67689.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>8.246655668897596e-06</v>
+        <v>0.9995385993581575</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9999917533443311</v>
+        <v>0.0004614006418425488</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9999917533443311</v>
+        <v>0.9995385993581575</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50003.fa</t>
+          <t>even_MAG-GUT6784.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.9995996314819279</v>
+        <v>1.613520344223573e-06</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0004003685180720912</v>
+        <v>0.9999983864796558</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9995996314819279</v>
+        <v>0.9999983864796558</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50015.fa</t>
+          <t>even_MAG-GUT68091.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.9998733576305888</v>
+        <v>0.9994732546699444</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0001266423694111844</v>
+        <v>0.0005267453300555928</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9998733576305888</v>
+        <v>0.9994732546699444</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -5149,17 +5149,17 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50121.fa</t>
+          <t>even_MAG-GUT68308.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.9987699971253775</v>
+        <v>0.9994658049186408</v>
       </c>
       <c r="C182" t="n">
-        <v>0.00123000287462247</v>
+        <v>0.0005341950813592646</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9987699971253775</v>
+        <v>0.9994658049186408</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -5175,17 +5175,17 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50132.fa</t>
+          <t>even_MAG-GUT68561.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.9999671601461383</v>
+        <v>0.998953889670615</v>
       </c>
       <c r="C183" t="n">
-        <v>3.283985386175392e-05</v>
+        <v>0.001046110329384943</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9999671601461383</v>
+        <v>0.998953889670615</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5201,43 +5201,43 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5085.fa</t>
+          <t>even_MAG-GUT6873.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.0001886647478411829</v>
+        <v>0.6721371782448984</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9998113352521588</v>
+        <v>0.3278628217551017</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9998113352521588</v>
+        <v>0.6721371782448984</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50866.fa</t>
+          <t>even_MAG-GUT68780.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.9983851951098237</v>
+        <v>0.9999769894532525</v>
       </c>
       <c r="C185" t="n">
-        <v>0.001614804890176343</v>
+        <v>2.301054674741515e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9983851951098237</v>
+        <v>0.9999769894532525</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5253,43 +5253,43 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50872.fa</t>
+          <t>even_MAG-GUT68996.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.9999176621928001</v>
+        <v>6.27032208816436e-05</v>
       </c>
       <c r="C186" t="n">
-        <v>8.233780719986265e-05</v>
+        <v>0.9999372967791184</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9999176621928001</v>
+        <v>0.9999372967791184</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50906.fa</t>
+          <t>even_MAG-GUT69595.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.9968463727180544</v>
+        <v>0.9998374512130868</v>
       </c>
       <c r="C187" t="n">
-        <v>0.003153627281945543</v>
+        <v>0.0001625487869132156</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9968463727180544</v>
+        <v>0.9998374512130868</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5305,17 +5305,17 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50925.fa</t>
+          <t>even_MAG-GUT69640.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.999961526600293</v>
+        <v>0.9999771597292928</v>
       </c>
       <c r="C188" t="n">
-        <v>3.847339970693978e-05</v>
+        <v>2.28402707071584e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>0.999961526600293</v>
+        <v>0.9999771597292928</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5331,43 +5331,43 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50928.fa</t>
+          <t>even_MAG-GUT69662.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.9998000162999069</v>
+        <v>2.002059133698886e-06</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0001999837000931519</v>
+        <v>0.9999979979408663</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9998000162999069</v>
+        <v>0.9999979979408663</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50936.fa</t>
+          <t>even_MAG-GUT69665.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.9999523761400466</v>
+        <v>0.9997379379432322</v>
       </c>
       <c r="C190" t="n">
-        <v>4.762385995339972e-05</v>
+        <v>0.0002620620567677681</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9999523761400466</v>
+        <v>0.9997379379432322</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -5383,17 +5383,17 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52916.fa</t>
+          <t>even_MAG-GUT69729.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.9774964937743971</v>
+        <v>0.9995027807937467</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0225035062256029</v>
+        <v>0.0004972192062533146</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9774964937743971</v>
+        <v>0.9995027807937467</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5409,69 +5409,69 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52923.fa</t>
+          <t>even_MAG-GUT7016.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.9998028826903111</v>
+        <v>0.0001261508124400512</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0001971173096888182</v>
+        <v>0.9998738491875599</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9998028826903111</v>
+        <v>0.9998738491875599</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52941.fa</t>
+          <t>even_MAG-GUT7042.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.9999768171135489</v>
+        <v>2.69464438188427e-05</v>
       </c>
       <c r="C193" t="n">
-        <v>2.31828864510546e-05</v>
+        <v>0.9999730535561812</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9999768171135489</v>
+        <v>0.9999730535561812</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53133.fa</t>
+          <t>even_MAG-GUT70973.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.9999848730310277</v>
+        <v>0.9999989537036694</v>
       </c>
       <c r="C194" t="n">
-        <v>1.512696897236147e-05</v>
+        <v>1.046296330537504e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9999848730310277</v>
+        <v>0.9999989537036694</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5487,17 +5487,17 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53142.fa</t>
+          <t>even_MAG-GUT71390.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.9986212852972659</v>
+        <v>0.9997241804718966</v>
       </c>
       <c r="C195" t="n">
-        <v>0.00137871470273409</v>
+        <v>0.0002758195281033816</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9986212852972659</v>
+        <v>0.9997241804718966</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5513,303 +5513,303 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56545.fa</t>
+          <t>even_MAG-GUT72079.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>4.596049812510827e-06</v>
+        <v>0.9997872159258959</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9999954039501875</v>
+        <v>0.0002127840741040606</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9999954039501875</v>
+        <v>0.9997872159258959</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56566.fa</t>
+          <t>even_MAG-GUT72100.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>4.223599835639913e-05</v>
+        <v>0.9999108785888078</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9999577640016436</v>
+        <v>8.912141119216387e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9999577640016436</v>
+        <v>0.9999108785888078</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56852.fa</t>
+          <t>even_MAG-GUT72283.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.0001494201734453249</v>
+        <v>0.9998481624212932</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9998505798265547</v>
+        <v>0.0001518375787068053</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9998505798265547</v>
+        <v>0.9998481624212932</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57085.fa</t>
+          <t>even_MAG-GUT72571.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>9.557720472841424e-06</v>
+        <v>0.9999214230987363</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9999904422795272</v>
+        <v>7.857690126367047e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9999904422795272</v>
+        <v>0.9999214230987363</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57726.fa</t>
+          <t>even_MAG-GUT72585.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.0005238285405683163</v>
+        <v>0.9998947693616032</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9994761714594317</v>
+        <v>0.0001052306383967983</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9994761714594317</v>
+        <v>0.9998947693616032</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58179.fa</t>
+          <t>even_MAG-GUT72832.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.0002004336207716007</v>
+        <v>0.9999931753027996</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9997995663792284</v>
+        <v>6.824697200319315e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9997995663792284</v>
+        <v>0.9999931753027996</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58214.fa</t>
+          <t>even_MAG-GUT72841.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.000897693491753726</v>
+        <v>0.99989144219455</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9991023065082463</v>
+        <v>0.0001085578054500465</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9991023065082463</v>
+        <v>0.99989144219455</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60374.fa</t>
+          <t>even_MAG-GUT73024.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1.233670889866367e-05</v>
+        <v>0.9999787066923204</v>
       </c>
       <c r="C203" t="n">
-        <v>0.9999876632911013</v>
+        <v>2.129330767962861e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9999876632911013</v>
+        <v>0.9999787066923204</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61409.fa</t>
+          <t>even_MAG-GUT73734.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.002142727026650304</v>
+        <v>0.9999098277060601</v>
       </c>
       <c r="C204" t="n">
-        <v>0.9978572729733497</v>
+        <v>9.017229393990644e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9978572729733497</v>
+        <v>0.9999098277060601</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61637.fa</t>
+          <t>even_MAG-GUT73909.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1.92631888296102e-06</v>
+        <v>0.9997001517730771</v>
       </c>
       <c r="C205" t="n">
-        <v>0.999998073681117</v>
+        <v>0.0002998482269228302</v>
       </c>
       <c r="D205" t="n">
-        <v>0.999998073681117</v>
+        <v>0.9997001517730771</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61735.fa</t>
+          <t>even_MAG-GUT73910.fa</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.001537375872670332</v>
+        <v>0.9997609290312761</v>
       </c>
       <c r="C206" t="n">
-        <v>0.9984626241273297</v>
+        <v>0.0002390709687239128</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9984626241273297</v>
+        <v>0.9997609290312761</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61794.fa</t>
+          <t>even_MAG-GUT73967.fa</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1.222175051385221e-05</v>
+        <v>1.114148855507757e-06</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9999877782494861</v>
+        <v>0.9999988858511445</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9999877782494861</v>
+        <v>0.9999988858511445</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -5825,43 +5825,43 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62134.fa</t>
+          <t>even_MAG-GUT74302.fa</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>4.92728632912609e-05</v>
+        <v>0.9887609800486459</v>
       </c>
       <c r="C208" t="n">
-        <v>0.9999507271367087</v>
+        <v>0.01123901995135415</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9999507271367087</v>
+        <v>0.9887609800486459</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62370.fa</t>
+          <t>even_MAG-GUT74311.fa</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.005638651241913983</v>
+        <v>0.0001890482157776985</v>
       </c>
       <c r="C209" t="n">
-        <v>0.994361348758086</v>
+        <v>0.9998109517842223</v>
       </c>
       <c r="D209" t="n">
-        <v>0.994361348758086</v>
+        <v>0.9998109517842223</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -5877,43 +5877,43 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62468.fa</t>
+          <t>even_MAG-GUT74323.fa</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>5.586295127357754e-05</v>
+        <v>0.9998015623015722</v>
       </c>
       <c r="C210" t="n">
-        <v>0.9999441370487264</v>
+        <v>0.0001984376984277215</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9999441370487264</v>
+        <v>0.9998015623015722</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65550.fa</t>
+          <t>even_MAG-GUT74335.fa</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.9998114445642431</v>
+        <v>0.9999624817842934</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0001885554357568927</v>
+        <v>3.75182157066554e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9998114445642431</v>
+        <v>0.9999624817842934</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -5929,147 +5929,147 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65895.fa</t>
+          <t>even_MAG-GUT75471.fa</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.9999507950189196</v>
+        <v>2.132859008407983e-06</v>
       </c>
       <c r="C212" t="n">
-        <v>4.920498108037202e-05</v>
+        <v>0.9999978671409916</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9999507950189196</v>
+        <v>0.9999978671409916</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6615.fa</t>
+          <t>even_MAG-GUT75478.fa</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>4.859080975494479e-05</v>
+        <v>0.9995615985499029</v>
       </c>
       <c r="C213" t="n">
-        <v>0.9999514091902451</v>
+        <v>0.0004384014500971538</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9999514091902451</v>
+        <v>0.9995615985499029</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6619.fa</t>
+          <t>even_MAG-GUT75788.fa</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.9998107076220599</v>
+        <v>0.0006261558680240586</v>
       </c>
       <c r="C214" t="n">
-        <v>0.00018929237794007</v>
+        <v>0.9993738441319759</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9998107076220599</v>
+        <v>0.9993738441319759</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6623.fa</t>
+          <t>even_MAG-GUT75820.fa</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.9999853795460817</v>
+        <v>0.0002816816046307125</v>
       </c>
       <c r="C215" t="n">
-        <v>1.462045391829598e-05</v>
+        <v>0.9997183183953693</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9999853795460817</v>
+        <v>0.9997183183953693</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66279.fa</t>
+          <t>even_MAG-GUT75834.fa</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.9998284973311942</v>
+        <v>0.000353544021995389</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0001715026688058277</v>
+        <v>0.9996464559780046</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9998284973311942</v>
+        <v>0.9996464559780046</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66843.fa</t>
+          <t>even_MAG-GUT76906.fa</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.9998097290299013</v>
+        <v>0.9999234009401096</v>
       </c>
       <c r="C217" t="n">
-        <v>0.000190270970098752</v>
+        <v>7.659905989040113e-05</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9998097290299013</v>
+        <v>0.9999234009401096</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -6085,17 +6085,17 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66846.fa</t>
+          <t>even_MAG-GUT76981.fa</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.9999970078005926</v>
+        <v>0.9996627882192233</v>
       </c>
       <c r="C218" t="n">
-        <v>2.99219940735129e-06</v>
+        <v>0.0003372117807767342</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9999970078005926</v>
+        <v>0.9996627882192233</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -6111,43 +6111,43 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66915.fa</t>
+          <t>even_MAG-GUT76988.fa</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1.001530336353085e-05</v>
+        <v>0.9993908706561671</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9999899846966365</v>
+        <v>0.0006091293438329374</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9999899846966365</v>
+        <v>0.9993908706561671</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6708.fa</t>
+          <t>even_MAG-GUT76995.fa</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.9999329815464099</v>
+        <v>0.9982819276304938</v>
       </c>
       <c r="C220" t="n">
-        <v>6.701845359018255e-05</v>
+        <v>0.001718072369506165</v>
       </c>
       <c r="D220" t="n">
-        <v>0.9999329815464099</v>
+        <v>0.9982819276304938</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -6163,17 +6163,17 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6722.fa</t>
+          <t>even_MAG-GUT77004.fa</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.9999514221131445</v>
+        <v>0.9995239619210415</v>
       </c>
       <c r="C221" t="n">
-        <v>4.857788685552738e-05</v>
+        <v>0.0004760380789584092</v>
       </c>
       <c r="D221" t="n">
-        <v>0.9999514221131445</v>
+        <v>0.9995239619210415</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -6189,43 +6189,43 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6727.fa</t>
+          <t>even_MAG-GUT77348.fa</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>5.872703531228929e-05</v>
+        <v>0.9994661519925511</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9999412729646877</v>
+        <v>0.0005338480074489333</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9999412729646877</v>
+        <v>0.9994661519925511</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67367.fa</t>
+          <t>even_MAG-GUT77357.fa</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.9965597183272412</v>
+        <v>0.9963595911635724</v>
       </c>
       <c r="C223" t="n">
-        <v>0.003440281672758796</v>
+        <v>0.003640408836427582</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9965597183272412</v>
+        <v>0.9963595911635724</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -6241,69 +6241,69 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6753.fa</t>
+          <t>even_MAG-GUT77371.fa</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>6.662168963278425e-06</v>
+        <v>0.9985889028350267</v>
       </c>
       <c r="C224" t="n">
-        <v>0.9999933378310367</v>
+        <v>0.001411097164973331</v>
       </c>
       <c r="D224" t="n">
-        <v>0.9999933378310367</v>
+        <v>0.9985889028350267</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67531.fa</t>
+          <t>even_MAG-GUT77389.fa</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>2.897380037969466e-05</v>
+        <v>0.9995685233598882</v>
       </c>
       <c r="C225" t="n">
-        <v>0.9999710261996203</v>
+        <v>0.0004314766401117792</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9999710261996203</v>
+        <v>0.9995685233598882</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67550.fa</t>
+          <t>even_MAG-GUT77514.fa</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.9989776562717068</v>
+        <v>0.999997724147491</v>
       </c>
       <c r="C226" t="n">
-        <v>0.001022343728293276</v>
+        <v>2.275852509054109e-06</v>
       </c>
       <c r="D226" t="n">
-        <v>0.9989776562717068</v>
+        <v>0.999997724147491</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -6319,17 +6319,17 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67681.fa</t>
+          <t>even_MAG-GUT77526.fa</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.9997659860560375</v>
+        <v>0.9997992461283025</v>
       </c>
       <c r="C227" t="n">
-        <v>0.0002340139439624672</v>
+        <v>0.0002007538716975173</v>
       </c>
       <c r="D227" t="n">
-        <v>0.9997659860560375</v>
+        <v>0.9997992461283025</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -6345,121 +6345,121 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67689.fa</t>
+          <t>even_MAG-GUT77563.fa</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.9995385993581575</v>
+        <v>9.269112194454365e-07</v>
       </c>
       <c r="C228" t="n">
-        <v>0.0004614006418425488</v>
+        <v>0.9999990730887806</v>
       </c>
       <c r="D228" t="n">
-        <v>0.9995385993581575</v>
+        <v>0.9999990730887806</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6784.fa</t>
+          <t>even_MAG-GUT77839.fa</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1.613520344223573e-06</v>
+        <v>0.9998131483953908</v>
       </c>
       <c r="C229" t="n">
-        <v>0.9999983864796558</v>
+        <v>0.0001868516046092183</v>
       </c>
       <c r="D229" t="n">
-        <v>0.9999983864796558</v>
+        <v>0.9998131483953908</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68091.fa</t>
+          <t>even_MAG-GUT78371.fa</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.9994732546699444</v>
+        <v>0.0005580464753620618</v>
       </c>
       <c r="C230" t="n">
-        <v>0.0005267453300555928</v>
+        <v>0.9994419535246379</v>
       </c>
       <c r="D230" t="n">
-        <v>0.9994732546699444</v>
+        <v>0.9994419535246379</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68308.fa</t>
+          <t>even_MAG-GUT80384.fa</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.9994658049186408</v>
+        <v>0.0006465070494086067</v>
       </c>
       <c r="C231" t="n">
-        <v>0.0005341950813592646</v>
+        <v>0.9993534929505914</v>
       </c>
       <c r="D231" t="n">
-        <v>0.9994658049186408</v>
+        <v>0.9993534929505914</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68537.fa</t>
+          <t>even_MAG-GUT80449.fa</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.0001780753684901271</v>
+        <v>9.952730647633246e-06</v>
       </c>
       <c r="C232" t="n">
-        <v>0.9998219246315099</v>
+        <v>0.9999900472693524</v>
       </c>
       <c r="D232" t="n">
-        <v>0.9998219246315099</v>
+        <v>0.9999900472693524</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -6475,95 +6475,95 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68561.fa</t>
+          <t>even_MAG-GUT80720.fa</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.998953889670615</v>
+        <v>0.0001736934340482721</v>
       </c>
       <c r="C233" t="n">
-        <v>0.001046110329384943</v>
+        <v>0.9998263065659517</v>
       </c>
       <c r="D233" t="n">
-        <v>0.998953889670615</v>
+        <v>0.9998263065659517</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6873.fa</t>
+          <t>even_MAG-GUT80804.fa</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.6721371782448984</v>
+        <v>8.838135963584737e-05</v>
       </c>
       <c r="C234" t="n">
-        <v>0.3278628217551017</v>
+        <v>0.9999116186403642</v>
       </c>
       <c r="D234" t="n">
-        <v>0.6721371782448984</v>
+        <v>0.9999116186403642</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria(reject)</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68780.fa</t>
+          <t>even_MAG-GUT81145.fa</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.9999769894532525</v>
+        <v>0.01796490628846226</v>
       </c>
       <c r="C235" t="n">
-        <v>2.301054674741515e-05</v>
+        <v>0.9820350937115377</v>
       </c>
       <c r="D235" t="n">
-        <v>0.9999769894532525</v>
+        <v>0.9820350937115377</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68996.fa</t>
+          <t>even_MAG-GUT81204.fa</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>6.27032208816436e-05</v>
+        <v>2.165820007771213e-05</v>
       </c>
       <c r="C236" t="n">
-        <v>0.9999372967791184</v>
+        <v>0.9999783417999223</v>
       </c>
       <c r="D236" t="n">
-        <v>0.9999372967791184</v>
+        <v>0.9999783417999223</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -6579,121 +6579,121 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69595.fa</t>
+          <t>even_MAG-GUT8151.fa</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.9998374512130868</v>
+        <v>4.929771428185958e-06</v>
       </c>
       <c r="C237" t="n">
-        <v>0.0001625487869132156</v>
+        <v>0.9999950702285718</v>
       </c>
       <c r="D237" t="n">
-        <v>0.9998374512130868</v>
+        <v>0.9999950702285718</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69640.fa</t>
+          <t>even_MAG-GUT82115.fa</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.9999771597292928</v>
+        <v>6.655618816342468e-05</v>
       </c>
       <c r="C238" t="n">
-        <v>2.28402707071584e-05</v>
+        <v>0.9999334438118366</v>
       </c>
       <c r="D238" t="n">
-        <v>0.9999771597292928</v>
+        <v>0.9999334438118366</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69662.fa</t>
+          <t>even_MAG-GUT82789.fa</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2.002059133698886e-06</v>
+        <v>0.9948914951993976</v>
       </c>
       <c r="C239" t="n">
-        <v>0.9999979979408663</v>
+        <v>0.005108504800602462</v>
       </c>
       <c r="D239" t="n">
-        <v>0.9999979979408663</v>
+        <v>0.9948914951993976</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69665.fa</t>
+          <t>even_MAG-GUT83592.fa</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.9997379379432322</v>
+        <v>6.807255934160317e-06</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0002620620567677681</v>
+        <v>0.9999931927440658</v>
       </c>
       <c r="D240" t="n">
-        <v>0.9997379379432322</v>
+        <v>0.9999931927440658</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69729.fa</t>
+          <t>even_MAG-GUT83640.fa</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.9995027807937467</v>
+        <v>0.9993443526262769</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0004972192062533146</v>
+        <v>0.0006556473737231598</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9995027807937467</v>
+        <v>0.9993443526262769</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -6709,69 +6709,69 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7016.fa</t>
+          <t>even_MAG-GUT83666.fa</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.0001261508124400512</v>
+        <v>0.9999527473319153</v>
       </c>
       <c r="C242" t="n">
-        <v>0.9998738491875599</v>
+        <v>4.725266808465302e-05</v>
       </c>
       <c r="D242" t="n">
-        <v>0.9998738491875599</v>
+        <v>0.9999527473319153</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7042.fa</t>
+          <t>even_MAG-GUT83683.fa</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2.69464438188427e-05</v>
+        <v>0.999506475502443</v>
       </c>
       <c r="C243" t="n">
-        <v>0.9999730535561812</v>
+        <v>0.0004935244975570568</v>
       </c>
       <c r="D243" t="n">
-        <v>0.9999730535561812</v>
+        <v>0.999506475502443</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>c__Gammaproteobacteria</t>
+          <t>c__Alphaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70635.fa</t>
+          <t>even_MAG-GUT84088.fa</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.9999216875297807</v>
+        <v>0.9934055504673933</v>
       </c>
       <c r="C244" t="n">
-        <v>7.831247021926685e-05</v>
+        <v>0.006594449532606655</v>
       </c>
       <c r="D244" t="n">
-        <v>0.9999216875297807</v>
+        <v>0.9934055504673933</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -6787,17 +6787,17 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70973.fa</t>
+          <t>even_MAG-GUT84361.fa</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.9999989537036694</v>
+        <v>0.9999580369715398</v>
       </c>
       <c r="C245" t="n">
-        <v>1.046296330537504e-06</v>
+        <v>4.196302846020193e-05</v>
       </c>
       <c r="D245" t="n">
-        <v>0.9999989537036694</v>
+        <v>0.9999580369715398</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -6813,17 +6813,17 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71390.fa</t>
+          <t>even_MAG-GUT84374.fa</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.9997241804718966</v>
+        <v>0.9998775246055189</v>
       </c>
       <c r="C246" t="n">
-        <v>0.0002758195281033816</v>
+        <v>0.0001224753944810234</v>
       </c>
       <c r="D246" t="n">
-        <v>0.9997241804718966</v>
+        <v>0.9998775246055189</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -6839,17 +6839,17 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72079.fa</t>
+          <t>even_MAG-GUT84479.fa</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.9997872159258959</v>
+        <v>0.9994905168418106</v>
       </c>
       <c r="C247" t="n">
-        <v>0.0002127840741040606</v>
+        <v>0.0005094831581894085</v>
       </c>
       <c r="D247" t="n">
-        <v>0.9997872159258959</v>
+        <v>0.9994905168418106</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -6865,43 +6865,43 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72100.fa</t>
+          <t>even_MAG-GUT84859.fa</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.9999108785888078</v>
+        <v>1.864892012037878e-06</v>
       </c>
       <c r="C248" t="n">
-        <v>8.912141119216387e-05</v>
+        <v>0.999998135107988</v>
       </c>
       <c r="D248" t="n">
-        <v>0.9999108785888078</v>
+        <v>0.999998135107988</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72283.fa</t>
+          <t>even_MAG-GUT85462.fa</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.9998481624212932</v>
+        <v>0.9998893778015314</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0001518375787068053</v>
+        <v>0.0001106221984685625</v>
       </c>
       <c r="D249" t="n">
-        <v>0.9998481624212932</v>
+        <v>0.9998893778015314</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -6917,17 +6917,17 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72571.fa</t>
+          <t>even_MAG-GUT85601.fa</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.9999214230987363</v>
+        <v>0.9934957504386126</v>
       </c>
       <c r="C250" t="n">
-        <v>7.857690126367047e-05</v>
+        <v>0.006504249561387439</v>
       </c>
       <c r="D250" t="n">
-        <v>0.9999214230987363</v>
+        <v>0.9934957504386126</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -6943,17 +6943,17 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72585.fa</t>
+          <t>even_MAG-GUT85702.fa</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.9998947693616032</v>
+        <v>0.9997899201607072</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0001052306383967983</v>
+        <v>0.0002100798392928113</v>
       </c>
       <c r="D251" t="n">
-        <v>0.9998947693616032</v>
+        <v>0.9997899201607072</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -6969,17 +6969,17 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72832.fa</t>
+          <t>even_MAG-GUT85992.fa</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.9999931753027996</v>
+        <v>0.9999924781179285</v>
       </c>
       <c r="C252" t="n">
-        <v>6.824697200319315e-06</v>
+        <v>7.521882071488696e-06</v>
       </c>
       <c r="D252" t="n">
-        <v>0.9999931753027996</v>
+        <v>0.9999924781179285</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -6995,17 +6995,17 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72841.fa</t>
+          <t>even_MAG-GUT86329.fa</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.99989144219455</v>
+        <v>0.9996523214865993</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0001085578054500465</v>
+        <v>0.0003476785134007116</v>
       </c>
       <c r="D253" t="n">
-        <v>0.99989144219455</v>
+        <v>0.9996523214865993</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -7021,17 +7021,17 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73024.fa</t>
+          <t>even_MAG-GUT86341.fa</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.9999787066923204</v>
+        <v>0.9996627786093829</v>
       </c>
       <c r="C254" t="n">
-        <v>2.129330767962861e-05</v>
+        <v>0.0003372213906170661</v>
       </c>
       <c r="D254" t="n">
-        <v>0.9999787066923204</v>
+        <v>0.9996627786093829</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -7047,17 +7047,17 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73734.fa</t>
+          <t>even_MAG-GUT86352.fa</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.9999098277060601</v>
+        <v>0.9998147950088164</v>
       </c>
       <c r="C255" t="n">
-        <v>9.017229393990644e-05</v>
+        <v>0.0001852049911835251</v>
       </c>
       <c r="D255" t="n">
-        <v>0.9999098277060601</v>
+        <v>0.9998147950088164</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -7073,17 +7073,17 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73909.fa</t>
+          <t>even_MAG-GUT86570.fa</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.9997001517730771</v>
+        <v>0.99996552268494</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0002998482269228302</v>
+        <v>3.447731506005042e-05</v>
       </c>
       <c r="D256" t="n">
-        <v>0.9997001517730771</v>
+        <v>0.99996552268494</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -7099,1688 +7099,24 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73910.fa</t>
+          <t>even_MAG-GUT91898.fa</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.9997609290312761</v>
+        <v>1.103146196690386e-05</v>
       </c>
       <c r="C257" t="n">
-        <v>0.0002390709687239128</v>
+        <v>0.9999889685380331</v>
       </c>
       <c r="D257" t="n">
-        <v>0.9997609290312761</v>
+        <v>0.9999889685380331</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Gammaproteobacteria</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT73967.fa</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>1.114148855507757e-06</v>
-      </c>
-      <c r="C258" t="n">
-        <v>0.9999988858511445</v>
-      </c>
-      <c r="D258" t="n">
-        <v>0.9999988858511445</v>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74302.fa</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>0.9887609800486459</v>
-      </c>
-      <c r="C259" t="n">
-        <v>0.01123901995135415</v>
-      </c>
-      <c r="D259" t="n">
-        <v>0.9887609800486459</v>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74311.fa</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>0.0001890482157776985</v>
-      </c>
-      <c r="C260" t="n">
-        <v>0.9998109517842223</v>
-      </c>
-      <c r="D260" t="n">
-        <v>0.9998109517842223</v>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74323.fa</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>0.9998015623015722</v>
-      </c>
-      <c r="C261" t="n">
-        <v>0.0001984376984277215</v>
-      </c>
-      <c r="D261" t="n">
-        <v>0.9998015623015722</v>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74335.fa</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>0.9999624817842934</v>
-      </c>
-      <c r="C262" t="n">
-        <v>3.75182157066554e-05</v>
-      </c>
-      <c r="D262" t="n">
-        <v>0.9999624817842934</v>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74695.fa</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>0.9999742031045443</v>
-      </c>
-      <c r="C263" t="n">
-        <v>2.579689545569434e-05</v>
-      </c>
-      <c r="D263" t="n">
-        <v>0.9999742031045443</v>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75471.fa</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>2.132859008407983e-06</v>
-      </c>
-      <c r="C264" t="n">
-        <v>0.9999978671409916</v>
-      </c>
-      <c r="D264" t="n">
-        <v>0.9999978671409916</v>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75478.fa</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>0.9995615985499029</v>
-      </c>
-      <c r="C265" t="n">
-        <v>0.0004384014500971538</v>
-      </c>
-      <c r="D265" t="n">
-        <v>0.9995615985499029</v>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75788.fa</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>0.0006261558680240586</v>
-      </c>
-      <c r="C266" t="n">
-        <v>0.9993738441319759</v>
-      </c>
-      <c r="D266" t="n">
-        <v>0.9993738441319759</v>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75820.fa</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>0.0002816816046307125</v>
-      </c>
-      <c r="C267" t="n">
-        <v>0.9997183183953693</v>
-      </c>
-      <c r="D267" t="n">
-        <v>0.9997183183953693</v>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75834.fa</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>0.000353544021995389</v>
-      </c>
-      <c r="C268" t="n">
-        <v>0.9996464559780046</v>
-      </c>
-      <c r="D268" t="n">
-        <v>0.9996464559780046</v>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT76906.fa</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>0.9999234009401096</v>
-      </c>
-      <c r="C269" t="n">
-        <v>7.659905989040113e-05</v>
-      </c>
-      <c r="D269" t="n">
-        <v>0.9999234009401096</v>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT76981.fa</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>0.9996627882192233</v>
-      </c>
-      <c r="C270" t="n">
-        <v>0.0003372117807767342</v>
-      </c>
-      <c r="D270" t="n">
-        <v>0.9996627882192233</v>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT76988.fa</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>0.9993908706561671</v>
-      </c>
-      <c r="C271" t="n">
-        <v>0.0006091293438329374</v>
-      </c>
-      <c r="D271" t="n">
-        <v>0.9993908706561671</v>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT76995.fa</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>0.9982819276304938</v>
-      </c>
-      <c r="C272" t="n">
-        <v>0.001718072369506165</v>
-      </c>
-      <c r="D272" t="n">
-        <v>0.9982819276304938</v>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77004.fa</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>0.9995239619210415</v>
-      </c>
-      <c r="C273" t="n">
-        <v>0.0004760380789584092</v>
-      </c>
-      <c r="D273" t="n">
-        <v>0.9995239619210415</v>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77348.fa</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>0.9994661519925511</v>
-      </c>
-      <c r="C274" t="n">
-        <v>0.0005338480074489333</v>
-      </c>
-      <c r="D274" t="n">
-        <v>0.9994661519925511</v>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77357.fa</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>0.9963595911635724</v>
-      </c>
-      <c r="C275" t="n">
-        <v>0.003640408836427582</v>
-      </c>
-      <c r="D275" t="n">
-        <v>0.9963595911635724</v>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77371.fa</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>0.9985889028350267</v>
-      </c>
-      <c r="C276" t="n">
-        <v>0.001411097164973331</v>
-      </c>
-      <c r="D276" t="n">
-        <v>0.9985889028350267</v>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77389.fa</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>0.9995685233598882</v>
-      </c>
-      <c r="C277" t="n">
-        <v>0.0004314766401117792</v>
-      </c>
-      <c r="D277" t="n">
-        <v>0.9995685233598882</v>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77514.fa</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>0.999997724147491</v>
-      </c>
-      <c r="C278" t="n">
-        <v>2.275852509054109e-06</v>
-      </c>
-      <c r="D278" t="n">
-        <v>0.999997724147491</v>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77526.fa</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>0.9997992461283025</v>
-      </c>
-      <c r="C279" t="n">
-        <v>0.0002007538716975173</v>
-      </c>
-      <c r="D279" t="n">
-        <v>0.9997992461283025</v>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77563.fa</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>9.269112194454365e-07</v>
-      </c>
-      <c r="C280" t="n">
-        <v>0.9999990730887806</v>
-      </c>
-      <c r="D280" t="n">
-        <v>0.9999990730887806</v>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77839.fa</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>0.9998131483953908</v>
-      </c>
-      <c r="C281" t="n">
-        <v>0.0001868516046092183</v>
-      </c>
-      <c r="D281" t="n">
-        <v>0.9998131483953908</v>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78207.fa</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>0.9999875961438897</v>
-      </c>
-      <c r="C282" t="n">
-        <v>1.240385611034497e-05</v>
-      </c>
-      <c r="D282" t="n">
-        <v>0.9999875961438897</v>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78371.fa</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>0.0005580464753620618</v>
-      </c>
-      <c r="C283" t="n">
-        <v>0.9994419535246379</v>
-      </c>
-      <c r="D283" t="n">
-        <v>0.9994419535246379</v>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT79180.fa</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>0.9986193390324236</v>
-      </c>
-      <c r="C284" t="n">
-        <v>0.001380660967576422</v>
-      </c>
-      <c r="D284" t="n">
-        <v>0.9986193390324236</v>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80384.fa</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>0.0006465070494086067</v>
-      </c>
-      <c r="C285" t="n">
-        <v>0.9993534929505914</v>
-      </c>
-      <c r="D285" t="n">
-        <v>0.9993534929505914</v>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80449.fa</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>9.952730647633246e-06</v>
-      </c>
-      <c r="C286" t="n">
-        <v>0.9999900472693524</v>
-      </c>
-      <c r="D286" t="n">
-        <v>0.9999900472693524</v>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80685.fa</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>4.608538543593443e-05</v>
-      </c>
-      <c r="C287" t="n">
-        <v>0.9999539146145641</v>
-      </c>
-      <c r="D287" t="n">
-        <v>0.9999539146145641</v>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80720.fa</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>0.0001736934340482721</v>
-      </c>
-      <c r="C288" t="n">
-        <v>0.9998263065659517</v>
-      </c>
-      <c r="D288" t="n">
-        <v>0.9998263065659517</v>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80804.fa</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>8.838135963584737e-05</v>
-      </c>
-      <c r="C289" t="n">
-        <v>0.9999116186403642</v>
-      </c>
-      <c r="D289" t="n">
-        <v>0.9999116186403642</v>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81029.fa</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>0.01579239888561756</v>
-      </c>
-      <c r="C290" t="n">
-        <v>0.9842076011143824</v>
-      </c>
-      <c r="D290" t="n">
-        <v>0.9842076011143824</v>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81145.fa</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>0.01796490628846226</v>
-      </c>
-      <c r="C291" t="n">
-        <v>0.9820350937115377</v>
-      </c>
-      <c r="D291" t="n">
-        <v>0.9820350937115377</v>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81204.fa</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>2.165820007771213e-05</v>
-      </c>
-      <c r="C292" t="n">
-        <v>0.9999783417999223</v>
-      </c>
-      <c r="D292" t="n">
-        <v>0.9999783417999223</v>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81432.fa</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>0.001363873758116974</v>
-      </c>
-      <c r="C293" t="n">
-        <v>0.998636126241883</v>
-      </c>
-      <c r="D293" t="n">
-        <v>0.998636126241883</v>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8151.fa</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>4.929771428185958e-06</v>
-      </c>
-      <c r="C294" t="n">
-        <v>0.9999950702285718</v>
-      </c>
-      <c r="D294" t="n">
-        <v>0.9999950702285718</v>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81523.fa</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>0.0008338529076210577</v>
-      </c>
-      <c r="C295" t="n">
-        <v>0.9991661470923789</v>
-      </c>
-      <c r="D295" t="n">
-        <v>0.9991661470923789</v>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82115.fa</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>6.655618816342468e-05</v>
-      </c>
-      <c r="C296" t="n">
-        <v>0.9999334438118366</v>
-      </c>
-      <c r="D296" t="n">
-        <v>0.9999334438118366</v>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82789.fa</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>0.9948914951993976</v>
-      </c>
-      <c r="C297" t="n">
-        <v>0.005108504800602462</v>
-      </c>
-      <c r="D297" t="n">
-        <v>0.9948914951993976</v>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83592.fa</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>6.807255934160317e-06</v>
-      </c>
-      <c r="C298" t="n">
-        <v>0.9999931927440658</v>
-      </c>
-      <c r="D298" t="n">
-        <v>0.9999931927440658</v>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83636.fa</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>0.9853774372752044</v>
-      </c>
-      <c r="C299" t="n">
-        <v>0.01462256272479553</v>
-      </c>
-      <c r="D299" t="n">
-        <v>0.9853774372752044</v>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83640.fa</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>0.9993443526262769</v>
-      </c>
-      <c r="C300" t="n">
-        <v>0.0006556473737231598</v>
-      </c>
-      <c r="D300" t="n">
-        <v>0.9993443526262769</v>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83666.fa</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>0.9999527473319153</v>
-      </c>
-      <c r="C301" t="n">
-        <v>4.725266808465302e-05</v>
-      </c>
-      <c r="D301" t="n">
-        <v>0.9999527473319153</v>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83683.fa</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>0.999506475502443</v>
-      </c>
-      <c r="C302" t="n">
-        <v>0.0004935244975570568</v>
-      </c>
-      <c r="D302" t="n">
-        <v>0.999506475502443</v>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT840.fa</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>0.9998512736743516</v>
-      </c>
-      <c r="C303" t="n">
-        <v>0.000148726325648408</v>
-      </c>
-      <c r="D303" t="n">
-        <v>0.9998512736743516</v>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84088.fa</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>0.9934055504673933</v>
-      </c>
-      <c r="C304" t="n">
-        <v>0.006594449532606655</v>
-      </c>
-      <c r="D304" t="n">
-        <v>0.9934055504673933</v>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84361.fa</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>0.9999580369715398</v>
-      </c>
-      <c r="C305" t="n">
-        <v>4.196302846020193e-05</v>
-      </c>
-      <c r="D305" t="n">
-        <v>0.9999580369715398</v>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84374.fa</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>0.9998775246055189</v>
-      </c>
-      <c r="C306" t="n">
-        <v>0.0001224753944810234</v>
-      </c>
-      <c r="D306" t="n">
-        <v>0.9998775246055189</v>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84479.fa</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>0.9994905168418106</v>
-      </c>
-      <c r="C307" t="n">
-        <v>0.0005094831581894085</v>
-      </c>
-      <c r="D307" t="n">
-        <v>0.9994905168418106</v>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84859.fa</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>1.864892012037878e-06</v>
-      </c>
-      <c r="C308" t="n">
-        <v>0.999998135107988</v>
-      </c>
-      <c r="D308" t="n">
-        <v>0.999998135107988</v>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85462.fa</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>0.9998893778015314</v>
-      </c>
-      <c r="C309" t="n">
-        <v>0.0001106221984685625</v>
-      </c>
-      <c r="D309" t="n">
-        <v>0.9998893778015314</v>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85601.fa</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>0.9934957504386126</v>
-      </c>
-      <c r="C310" t="n">
-        <v>0.006504249561387439</v>
-      </c>
-      <c r="D310" t="n">
-        <v>0.9934957504386126</v>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85702.fa</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>0.9997899201607072</v>
-      </c>
-      <c r="C311" t="n">
-        <v>0.0002100798392928113</v>
-      </c>
-      <c r="D311" t="n">
-        <v>0.9997899201607072</v>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85992.fa</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>0.9999924781179285</v>
-      </c>
-      <c r="C312" t="n">
-        <v>7.521882071488696e-06</v>
-      </c>
-      <c r="D312" t="n">
-        <v>0.9999924781179285</v>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86329.fa</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>0.9996523214865993</v>
-      </c>
-      <c r="C313" t="n">
-        <v>0.0003476785134007116</v>
-      </c>
-      <c r="D313" t="n">
-        <v>0.9996523214865993</v>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86341.fa</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>0.9996627786093829</v>
-      </c>
-      <c r="C314" t="n">
-        <v>0.0003372213906170661</v>
-      </c>
-      <c r="D314" t="n">
-        <v>0.9996627786093829</v>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86352.fa</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>0.9998147950088164</v>
-      </c>
-      <c r="C315" t="n">
-        <v>0.0001852049911835251</v>
-      </c>
-      <c r="D315" t="n">
-        <v>0.9998147950088164</v>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86570.fa</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>0.99996552268494</v>
-      </c>
-      <c r="C316" t="n">
-        <v>3.447731506005042e-05</v>
-      </c>
-      <c r="D316" t="n">
-        <v>0.99996552268494</v>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>c__Alphaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90614.fa</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>0.0001947704141562756</v>
-      </c>
-      <c r="C317" t="n">
-        <v>0.9998052295858437</v>
-      </c>
-      <c r="D317" t="n">
-        <v>0.9998052295858437</v>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90675.fa</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>4.886139913484744e-05</v>
-      </c>
-      <c r="C318" t="n">
-        <v>0.9999511386008652</v>
-      </c>
-      <c r="D318" t="n">
-        <v>0.9999511386008652</v>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90995.fa</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>0.0001947296674690291</v>
-      </c>
-      <c r="C319" t="n">
-        <v>0.999805270332531</v>
-      </c>
-      <c r="D319" t="n">
-        <v>0.999805270332531</v>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91702.fa</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>1.61256295371226e-05</v>
-      </c>
-      <c r="C320" t="n">
-        <v>0.9999838743704629</v>
-      </c>
-      <c r="D320" t="n">
-        <v>0.9999838743704629</v>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91898.fa</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>1.103146196690386e-05</v>
-      </c>
-      <c r="C321" t="n">
-        <v>0.9999889685380331</v>
-      </c>
-      <c r="D321" t="n">
-        <v>0.9999889685380331</v>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>c__Gammaproteobacteria</t>
-        </is>
-      </c>
-      <c r="F321" t="inlineStr">
         <is>
           <t>c__Gammaproteobacteria</t>
         </is>
